--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86793.22315003442</v>
+        <v>80846.39711538007</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5221662.486461528</v>
+        <v>5221662.486461529</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>247.3567305237858</v>
+        <v>117.6824966688994</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -715,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
@@ -755,7 +755,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H3" t="n">
-        <v>52.84233230531348</v>
+        <v>52.8423323053137</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
@@ -837,7 +837,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>89.01056728151127</v>
       </c>
       <c r="W4" t="n">
-        <v>19.20130855525859</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>111.5422858787866</v>
       </c>
       <c r="Y5" t="n">
-        <v>127.6204204037764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>42.09444105482045</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>122.6585593529122</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1122,7 +1122,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>398.0394319239612</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>143.4324547506683</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,7 +1229,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H9" t="n">
-        <v>52.84233230531351</v>
+        <v>52.8423323053137</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>68.16983225394972</v>
       </c>
       <c r="H10" t="n">
-        <v>34.79484432979879</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>106.3192265349073</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>185.6213706001842</v>
       </c>
     </row>
     <row r="12">
@@ -1536,19 +1536,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>34.79484432979879</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>179.9081353465874</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>19.99433262062448</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -1627,7 +1627,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>282.115011552403</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>5.7893030460366</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -1785,7 +1785,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>82.18715368281119</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1833,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>222.676415663923</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>158.6078173919419</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2007,7 +2007,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>47.38252280718169</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
@@ -2058,19 +2058,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>226.6995966139811</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>126.75249964387</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>102.6535728259966</v>
       </c>
     </row>
     <row r="21">
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -2259,7 +2259,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>144.5828891654699</v>
       </c>
       <c r="V22" t="n">
-        <v>164.540418312084</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2329,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>232.4652889232121</v>
       </c>
       <c r="G23" t="n">
-        <v>347.3478621916883</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2478,7 +2478,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>68.83205621563042</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>139.4851730221162</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>173.6367412348447</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>94.1073748913312</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>15.43513411809506</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>164.5404183120838</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>196.4579271639024</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>286.5286915589647</v>
       </c>
       <c r="G29" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>130.9053442641102</v>
       </c>
       <c r="G31" t="n">
-        <v>26.07726775187054</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3009,10 +3009,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3031,22 +3031,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>252.8252773014384</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>389.8620630604702</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>124.1148713352709</v>
       </c>
       <c r="G34" t="n">
-        <v>88.66266823451852</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3249,7 +3249,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>106.3192265349073</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>19.91537112241213</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3429,19 +3429,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>7.528125734399584</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>34.79484432979879</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>195.5736738975789</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>193.8004513171312</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>2.249401508912849</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>139.485173022116</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
@@ -3723,7 +3723,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>175.0364284967271</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>141.3535193811976</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3900,19 +3900,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>68.83205621563042</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>120.1186189666117</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>222.9280273581882</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.99560534931634</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4140,22 +4140,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>149.3489442400482</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4197,13 +4197,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>195.2294934396551</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>713.668005804886</v>
+        <v>155.7832012172908</v>
       </c>
       <c r="C2" t="n">
-        <v>286.7672758181861</v>
+        <v>155.7832012172908</v>
       </c>
       <c r="D2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K2" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L2" t="n">
-        <v>357.6855680512415</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M2" t="n">
-        <v>814.4714747539723</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N2" t="n">
-        <v>1271.257381456703</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="O2" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P2" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q2" t="n">
         <v>1728.043288159434</v>
@@ -4363,19 +4363,19 @@
         <v>1741.232328914477</v>
       </c>
       <c r="U2" t="n">
-        <v>1482.877419510889</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V2" t="n">
-        <v>1125.388004637139</v>
+        <v>1383.742914040727</v>
       </c>
       <c r="W2" t="n">
-        <v>1125.388004637139</v>
+        <v>987.3515643410735</v>
       </c>
       <c r="X2" t="n">
-        <v>713.668005804886</v>
+        <v>575.6315655088208</v>
       </c>
       <c r="Y2" t="n">
-        <v>713.668005804886</v>
+        <v>575.6315655088208</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C3" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250717</v>
+        <v>382.689621525072</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980092</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809133</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851712</v>
+        <v>90.28808569851735</v>
       </c>
       <c r="H3" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I3" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J3" t="n">
         <v>316.0561247023297</v>
       </c>
       <c r="K3" t="n">
-        <v>772.8420314050604</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L3" t="n">
-        <v>1229.627938107791</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="M3" t="n">
-        <v>1686.413844810522</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="N3" t="n">
-        <v>1845.599623041337</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="O3" t="n">
-        <v>1845.599623041337</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P3" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R3" t="n">
         <v>1845.599623041337</v>
@@ -4439,7 +4439,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U3" t="n">
         <v>1437.627243819906</v>
@@ -4448,13 +4448,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="4">
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1120.093114985063</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="C4" t="n">
-        <v>948.1205518639796</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D4" t="n">
-        <v>784.8037789907503</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E4" t="n">
-        <v>618.5955731436038</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F4" t="n">
-        <v>446.7337989181643</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G4" t="n">
-        <v>280.4768292123964</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J4" t="n">
         <v>94.40332068498475</v>
       </c>
       <c r="K4" t="n">
-        <v>304.6336537379661</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L4" t="n">
-        <v>659.3229750323869</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M4" t="n">
-        <v>1050.508770002638</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N4" t="n">
-        <v>1428.000280878673</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O4" t="n">
-        <v>1428.000280878673</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P4" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q4" t="n">
         <v>1845.599623041337</v>
@@ -4515,25 +4515,25 @@
         <v>1798.56100972851</v>
       </c>
       <c r="S4" t="n">
-        <v>1798.56100972851</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T4" t="n">
-        <v>1798.56100972851</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U4" t="n">
-        <v>1798.56100972851</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="V4" t="n">
-        <v>1798.56100972851</v>
+        <v>1295.176950552827</v>
       </c>
       <c r="W4" t="n">
-        <v>1779.165748561582</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="X4" t="n">
-        <v>1536.601852007387</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="Y4" t="n">
-        <v>1310.259083697129</v>
+        <v>1020.32454672534</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>71.80886371735552</v>
+        <v>1313.082283114669</v>
       </c>
       <c r="C5" t="n">
-        <v>71.80886371735552</v>
+        <v>886.181553127969</v>
       </c>
       <c r="D5" t="n">
-        <v>71.80886371735552</v>
+        <v>462.8889323129692</v>
       </c>
       <c r="E5" t="n">
-        <v>71.80886371735552</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F5" t="n">
-        <v>71.80886371735552</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G5" t="n">
-        <v>71.80886371735552</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H5" t="n">
-        <v>71.80886371735552</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J5" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K5" t="n">
-        <v>856.3013579804531</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L5" t="n">
-        <v>856.3013579804531</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M5" t="n">
-        <v>856.3013579804531</v>
+        <v>950.4838058662885</v>
       </c>
       <c r="N5" t="n">
-        <v>856.3013579804531</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="O5" t="n">
-        <v>1271.957808655251</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="P5" t="n">
-        <v>1271.957808655251</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q5" t="n">
         <v>1728.043288159434</v>
@@ -4597,22 +4597,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T5" t="n">
-        <v>1624.67405208597</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U5" t="n">
-        <v>1366.319142682382</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V5" t="n">
-        <v>1008.829727808632</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W5" t="n">
-        <v>612.4383781089784</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X5" t="n">
-        <v>200.7183792767257</v>
+        <v>1732.930647406199</v>
       </c>
       <c r="Y5" t="n">
-        <v>71.80886371735552</v>
+        <v>1732.930647406199</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C6" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J6" t="n">
-        <v>44.35863542273857</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K6" t="n">
-        <v>44.35863542273857</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L6" t="n">
-        <v>501.1445421254694</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="M6" t="n">
-        <v>957.9304488282003</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="N6" t="n">
-        <v>1414.716355530931</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="O6" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P6" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q6" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R6" t="n">
         <v>1845.599623041337</v>
@@ -4676,7 +4676,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U6" t="n">
         <v>1437.627243819906</v>
@@ -4685,13 +4685,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>208.8845555819107</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="C7" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D7" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E7" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F7" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G7" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H7" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J7" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K7" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L7" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M7" t="n">
-        <v>822.0807715636367</v>
+        <v>1050.508770002638</v>
       </c>
       <c r="N7" t="n">
-        <v>1199.572282439673</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="O7" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P7" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q7" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R7" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S7" t="n">
-        <v>1721.702088341425</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T7" t="n">
-        <v>1478.362740567325</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U7" t="n">
-        <v>1198.178292067629</v>
+        <v>1104.902165973849</v>
       </c>
       <c r="V7" t="n">
-        <v>916.4668246756582</v>
+        <v>823.1906985818782</v>
       </c>
       <c r="W7" t="n">
-        <v>641.6144208481712</v>
+        <v>548.3382947543912</v>
       </c>
       <c r="X7" t="n">
-        <v>399.0505242939764</v>
+        <v>305.7743982001963</v>
       </c>
       <c r="Y7" t="n">
-        <v>399.0505242939764</v>
+        <v>79.43162988993831</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>463.8127224475267</v>
+        <v>1162.81734308536</v>
       </c>
       <c r="C8" t="n">
-        <v>36.91199246082673</v>
+        <v>1162.81734308536</v>
       </c>
       <c r="D8" t="n">
-        <v>36.91199246082673</v>
+        <v>760.7573108389344</v>
       </c>
       <c r="E8" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="F8" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J8" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K8" t="n">
-        <v>856.3013579804531</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L8" t="n">
-        <v>856.3013579804531</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M8" t="n">
-        <v>1313.087264683184</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="N8" t="n">
-        <v>1313.087264683184</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="O8" t="n">
-        <v>1313.087264683184</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P8" t="n">
-        <v>1389.514143537154</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q8" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R8" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T8" t="n">
-        <v>1700.718355616419</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U8" t="n">
-        <v>1700.718355616419</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="V8" t="n">
-        <v>1700.718355616419</v>
+        <v>1162.81734308536</v>
       </c>
       <c r="W8" t="n">
-        <v>1700.718355616419</v>
+        <v>1162.81734308536</v>
       </c>
       <c r="X8" t="n">
-        <v>1288.998356784166</v>
+        <v>1162.81734308536</v>
       </c>
       <c r="Y8" t="n">
-        <v>883.6610867390567</v>
+        <v>1162.81734308536</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C9" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250717</v>
+        <v>382.689621525072</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980092</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809133</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851735</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J9" t="n">
-        <v>44.35863542273857</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K9" t="n">
-        <v>393.2225928484411</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L9" t="n">
-        <v>393.2225928484411</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="M9" t="n">
-        <v>393.2225928484411</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="N9" t="n">
-        <v>850.0084995511719</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="O9" t="n">
-        <v>850.0084995511719</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P9" t="n">
         <v>1306.794406253903</v>
       </c>
       <c r="Q9" t="n">
-        <v>1763.580312956633</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R9" t="n">
         <v>1845.599623041337</v>
@@ -4913,7 +4913,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U9" t="n">
         <v>1437.627243819906</v>
@@ -4922,13 +4922,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>911.6745856373311</v>
+        <v>249.5666773708034</v>
       </c>
       <c r="C10" t="n">
-        <v>739.7020225162471</v>
+        <v>249.5666773708034</v>
       </c>
       <c r="D10" t="n">
-        <v>576.3852496430178</v>
+        <v>249.5666773708034</v>
       </c>
       <c r="E10" t="n">
-        <v>410.1770437958713</v>
+        <v>249.5666773708034</v>
       </c>
       <c r="F10" t="n">
-        <v>238.3152695704318</v>
+        <v>249.5666773708034</v>
       </c>
       <c r="G10" t="n">
-        <v>72.05829986466389</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K10" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L10" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M10" t="n">
-        <v>822.0807715636367</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N10" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O10" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P10" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q10" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R10" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S10" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T10" t="n">
-        <v>1845.599623041337</v>
+        <v>1555.22166195441</v>
       </c>
       <c r="U10" t="n">
-        <v>1845.599623041337</v>
+        <v>1275.037213454714</v>
       </c>
       <c r="V10" t="n">
-        <v>1845.599623041337</v>
+        <v>993.3257460627433</v>
       </c>
       <c r="W10" t="n">
-        <v>1570.74721921385</v>
+        <v>718.4733422352563</v>
       </c>
       <c r="X10" t="n">
-        <v>1328.183322659655</v>
+        <v>475.9094456810614</v>
       </c>
       <c r="Y10" t="n">
-        <v>1101.840554349397</v>
+        <v>249.5666773708034</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1738.206464925269</v>
+        <v>463.8127224475267</v>
       </c>
       <c r="C11" t="n">
-        <v>1311.305734938569</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D11" t="n">
-        <v>888.013114123569</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E11" t="n">
-        <v>462.0361742714265</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F11" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G11" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H11" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I11" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J11" t="n">
         <v>399.5154512777223</v>
@@ -5047,19 +5047,19 @@
         <v>399.5154512777223</v>
       </c>
       <c r="L11" t="n">
-        <v>814.4714747539723</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M11" t="n">
-        <v>1271.257381456703</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N11" t="n">
-        <v>1271.257381456703</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O11" t="n">
-        <v>1728.043288159434</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P11" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q11" t="n">
         <v>1728.043288159434</v>
@@ -5068,25 +5068,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S11" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T11" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U11" t="n">
-        <v>1845.599623041337</v>
+        <v>1482.877419510889</v>
       </c>
       <c r="V11" t="n">
-        <v>1845.599623041337</v>
+        <v>1482.877419510889</v>
       </c>
       <c r="W11" t="n">
-        <v>1845.599623041337</v>
+        <v>1482.877419510889</v>
       </c>
       <c r="X11" t="n">
-        <v>1845.599623041337</v>
+        <v>1071.157420678637</v>
       </c>
       <c r="Y11" t="n">
-        <v>1845.599623041337</v>
+        <v>883.6610867390567</v>
       </c>
     </row>
     <row r="12">
@@ -5102,46 +5102,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D12" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E12" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F12" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G12" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H12" t="n">
-        <v>36.91199246082672</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I12" t="n">
-        <v>36.91199246082672</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J12" t="n">
-        <v>36.91199246082672</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K12" t="n">
-        <v>36.91199246082672</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L12" t="n">
-        <v>493.6978991635575</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="M12" t="n">
-        <v>950.4838058662883</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="N12" t="n">
-        <v>950.4838058662883</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="O12" t="n">
-        <v>1407.269712569019</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="P12" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="Q12" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R12" t="n">
         <v>1845.599623041337</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>911.6745856373311</v>
+        <v>787.6279394321493</v>
       </c>
       <c r="C13" t="n">
-        <v>739.7020225162471</v>
+        <v>615.6553763110653</v>
       </c>
       <c r="D13" t="n">
-        <v>576.3852496430178</v>
+        <v>452.338603437836</v>
       </c>
       <c r="E13" t="n">
-        <v>410.1770437958713</v>
+        <v>452.338603437836</v>
       </c>
       <c r="F13" t="n">
-        <v>238.3152695704318</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="G13" t="n">
-        <v>72.05829986466389</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H13" t="n">
-        <v>72.05829986466389</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I13" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J13" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K13" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L13" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M13" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N13" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O13" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P13" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q13" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R13" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S13" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T13" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="U13" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="V13" t="n">
-        <v>1845.599623041337</v>
+        <v>1446.700573008668</v>
       </c>
       <c r="W13" t="n">
-        <v>1570.74721921385</v>
+        <v>1446.700573008668</v>
       </c>
       <c r="X13" t="n">
-        <v>1328.183322659655</v>
+        <v>1204.136676454473</v>
       </c>
       <c r="Y13" t="n">
-        <v>1101.840554349397</v>
+        <v>977.793908144215</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1164.243615207943</v>
+        <v>1219.33678204086</v>
       </c>
       <c r="C14" t="n">
-        <v>1164.243615207943</v>
+        <v>1219.33678204086</v>
       </c>
       <c r="D14" t="n">
-        <v>1164.243615207943</v>
+        <v>1219.33678204086</v>
       </c>
       <c r="E14" t="n">
-        <v>1164.243615207943</v>
+        <v>1199.140486464472</v>
       </c>
       <c r="F14" t="n">
-        <v>739.1194333973433</v>
+        <v>774.0163046538721</v>
       </c>
       <c r="G14" t="n">
-        <v>334.7803709867919</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="H14" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I14" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J14" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K14" t="n">
-        <v>856.3013579804531</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L14" t="n">
         <v>856.3013579804531</v>
@@ -5293,13 +5293,13 @@
         <v>856.3013579804531</v>
       </c>
       <c r="O14" t="n">
-        <v>1271.957808655251</v>
+        <v>932.7282368344229</v>
       </c>
       <c r="P14" t="n">
-        <v>1271.957808655251</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q14" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R14" t="n">
         <v>1845.599623041337</v>
@@ -5308,22 +5308,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T14" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U14" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="V14" t="n">
-        <v>1560.634964907596</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="W14" t="n">
-        <v>1164.243615207943</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="X14" t="n">
-        <v>1164.243615207943</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="Y14" t="n">
-        <v>1164.243615207943</v>
+        <v>1219.33678204086</v>
       </c>
     </row>
     <row r="15">
@@ -5339,40 +5339,40 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D15" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E15" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F15" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G15" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H15" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I15" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J15" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K15" t="n">
-        <v>308.6094817404178</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L15" t="n">
-        <v>308.6094817404178</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="M15" t="n">
-        <v>765.3953884431487</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="N15" t="n">
-        <v>1222.18129514588</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="O15" t="n">
-        <v>1306.794406253903</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="P15" t="n">
         <v>1763.580312956633</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>352.8130115130226</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="C16" t="n">
-        <v>352.8130115130226</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="D16" t="n">
-        <v>352.8130115130226</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="E16" t="n">
-        <v>352.8130115130226</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="F16" t="n">
-        <v>346.9652306584402</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G16" t="n">
-        <v>180.7082609526723</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H16" t="n">
-        <v>36.91199246082673</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I16" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J16" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K16" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L16" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M16" t="n">
-        <v>822.0807715636367</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N16" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O16" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P16" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q16" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R16" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S16" t="n">
-        <v>1675.464575560472</v>
+        <v>1715.543682776176</v>
       </c>
       <c r="T16" t="n">
-        <v>1432.125227786371</v>
+        <v>1472.204335002075</v>
       </c>
       <c r="U16" t="n">
-        <v>1151.940779286676</v>
+        <v>1472.204335002075</v>
       </c>
       <c r="V16" t="n">
-        <v>870.2293118947046</v>
+        <v>1190.492867610104</v>
       </c>
       <c r="W16" t="n">
-        <v>595.3769080672175</v>
+        <v>915.6404637826172</v>
       </c>
       <c r="X16" t="n">
-        <v>352.8130115130226</v>
+        <v>673.0765672284223</v>
       </c>
       <c r="Y16" t="n">
-        <v>352.8130115130226</v>
+        <v>446.7337989181643</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.8127224475267</v>
+        <v>688.7383948353277</v>
       </c>
       <c r="C17" t="n">
-        <v>36.91199246082673</v>
+        <v>261.8376648486278</v>
       </c>
       <c r="D17" t="n">
-        <v>36.91199246082673</v>
+        <v>261.8376648486278</v>
       </c>
       <c r="E17" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F17" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G17" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H17" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I17" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J17" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K17" t="n">
-        <v>36.91199246082673</v>
+        <v>814.4714747539724</v>
       </c>
       <c r="L17" t="n">
-        <v>475.2419029331443</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="M17" t="n">
-        <v>932.0278096358751</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="N17" t="n">
-        <v>1388.813716338606</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="O17" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="P17" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q17" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R17" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S17" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T17" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U17" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="V17" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="W17" t="n">
-        <v>1449.208273341683</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="X17" t="n">
-        <v>1288.998356784166</v>
+        <v>1108.586759126858</v>
       </c>
       <c r="Y17" t="n">
-        <v>883.6610867390567</v>
+        <v>1108.586759126858</v>
       </c>
     </row>
     <row r="18">
@@ -5576,46 +5576,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D18" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E18" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F18" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G18" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H18" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I18" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J18" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K18" t="n">
-        <v>475.2419029331443</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L18" t="n">
-        <v>932.0278096358751</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M18" t="n">
-        <v>1388.813716338606</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="N18" t="n">
-        <v>1845.599623041337</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="O18" t="n">
-        <v>1845.599623041337</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="P18" t="n">
-        <v>1845.599623041337</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="Q18" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R18" t="n">
         <v>1845.599623041337</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>672.1723007075884</v>
+        <v>544.0631026805796</v>
       </c>
       <c r="C19" t="n">
-        <v>500.1997375865044</v>
+        <v>372.0905395594956</v>
       </c>
       <c r="D19" t="n">
-        <v>500.1997375865044</v>
+        <v>208.7737666862663</v>
       </c>
       <c r="E19" t="n">
-        <v>500.1997375865044</v>
+        <v>208.7737666862663</v>
       </c>
       <c r="F19" t="n">
-        <v>328.3379633610648</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G19" t="n">
-        <v>280.4768292123964</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H19" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I19" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J19" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K19" t="n">
-        <v>320.9309218908219</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L19" t="n">
-        <v>675.6202431852428</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M19" t="n">
-        <v>1066.806038155494</v>
+        <v>1009.314709931336</v>
       </c>
       <c r="N19" t="n">
-        <v>1444.297549031529</v>
+        <v>1386.806220807371</v>
       </c>
       <c r="O19" t="n">
-        <v>1799.725677711293</v>
+        <v>1742.234349487134</v>
       </c>
       <c r="P19" t="n">
         <v>1845.599623041337</v>
@@ -5697,28 +5697,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R19" t="n">
-        <v>1798.56100972851</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S19" t="n">
-        <v>1628.425962247645</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T19" t="n">
-        <v>1385.086614473545</v>
+        <v>1432.125227786372</v>
       </c>
       <c r="U19" t="n">
-        <v>1104.902165973849</v>
+        <v>1432.125227786372</v>
       </c>
       <c r="V19" t="n">
-        <v>1104.902165973849</v>
+        <v>1432.125227786372</v>
       </c>
       <c r="W19" t="n">
-        <v>1104.902165973849</v>
+        <v>1203.135736257098</v>
       </c>
       <c r="X19" t="n">
-        <v>862.338269419654</v>
+        <v>960.5718397029032</v>
       </c>
       <c r="Y19" t="n">
-        <v>862.338269419654</v>
+        <v>734.2290713926452</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1312.229525073126</v>
+        <v>463.8127224475267</v>
       </c>
       <c r="C20" t="n">
-        <v>885.3287950864262</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D20" t="n">
-        <v>462.0361742714265</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E20" t="n">
-        <v>462.0361742714265</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F20" t="n">
         <v>36.91199246082674</v>
@@ -5761,43 +5761,43 @@
         <v>856.3013579804531</v>
       </c>
       <c r="M20" t="n">
-        <v>1271.257381456703</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N20" t="n">
-        <v>1728.043288159434</v>
+        <v>932.7282368344229</v>
       </c>
       <c r="O20" t="n">
-        <v>1728.043288159434</v>
+        <v>932.7282368344229</v>
       </c>
       <c r="P20" t="n">
-        <v>1728.043288159434</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q20" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R20" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S20" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T20" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U20" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V20" t="n">
-        <v>1717.566795118236</v>
+        <v>1383.742914040727</v>
       </c>
       <c r="W20" t="n">
-        <v>1717.566795118236</v>
+        <v>987.3515643410735</v>
       </c>
       <c r="X20" t="n">
-        <v>1717.566795118236</v>
+        <v>987.3515643410735</v>
       </c>
       <c r="Y20" t="n">
-        <v>1312.229525073126</v>
+        <v>883.6610867390567</v>
       </c>
     </row>
     <row r="21">
@@ -5807,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C21" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D21" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E21" t="n">
-        <v>277.9876877980091</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F21" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G21" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H21" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I21" t="n">
-        <v>44.35863542273854</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J21" t="n">
-        <v>316.0561247023296</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K21" t="n">
-        <v>772.8420314050604</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L21" t="n">
-        <v>850.0084995511718</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="M21" t="n">
-        <v>850.0084995511718</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="N21" t="n">
-        <v>1306.794406253903</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="O21" t="n">
-        <v>1763.580312956634</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="P21" t="n">
-        <v>1763.580312956634</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="Q21" t="n">
-        <v>1763.580312956634</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R21" t="n">
         <v>1845.599623041337</v>
@@ -5861,7 +5861,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T21" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U21" t="n">
         <v>1437.627243819906</v>
@@ -5870,13 +5870,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W21" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X21" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y21" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1020.32454672534</v>
+        <v>610.0505717913936</v>
       </c>
       <c r="C22" t="n">
-        <v>848.3519836042556</v>
+        <v>610.0505717913936</v>
       </c>
       <c r="D22" t="n">
-        <v>685.0352107310263</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="E22" t="n">
-        <v>518.8270048838798</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="F22" t="n">
-        <v>346.9652306584402</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G22" t="n">
-        <v>180.7082609526723</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H22" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I22" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J22" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K22" t="n">
-        <v>76.20565529896515</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="L22" t="n">
-        <v>430.8949765933859</v>
+        <v>449.0926419794055</v>
       </c>
       <c r="M22" t="n">
-        <v>822.0807715636367</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N22" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O22" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P22" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q22" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R22" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S22" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T22" t="n">
-        <v>1845.599623041337</v>
+        <v>1555.22166195441</v>
       </c>
       <c r="U22" t="n">
-        <v>1845.599623041337</v>
+        <v>1409.178339565047</v>
       </c>
       <c r="V22" t="n">
-        <v>1679.397180301858</v>
+        <v>1127.466872173075</v>
       </c>
       <c r="W22" t="n">
-        <v>1679.397180301858</v>
+        <v>852.6144683455885</v>
       </c>
       <c r="X22" t="n">
-        <v>1436.833283747663</v>
+        <v>610.0505717913936</v>
       </c>
       <c r="Y22" t="n">
-        <v>1210.490515437405</v>
+        <v>610.0505717913936</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>387.7684189170776</v>
+        <v>1008.829727808632</v>
       </c>
       <c r="C23" t="n">
-        <v>387.7684189170776</v>
+        <v>1008.829727808632</v>
       </c>
       <c r="D23" t="n">
-        <v>387.7684189170776</v>
+        <v>1008.829727808632</v>
       </c>
       <c r="E23" t="n">
-        <v>387.7684189170776</v>
+        <v>1008.829727808632</v>
       </c>
       <c r="F23" t="n">
-        <v>387.7684189170776</v>
+        <v>774.0163046538721</v>
       </c>
       <c r="G23" t="n">
-        <v>36.91199246082674</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="H23" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I23" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J23" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K23" t="n">
-        <v>36.91199246082674</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L23" t="n">
-        <v>493.6978991635576</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="M23" t="n">
-        <v>932.027809635875</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="N23" t="n">
-        <v>1388.813716338606</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="O23" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="P23" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q23" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R23" t="n">
         <v>1845.599623041337</v>
@@ -6022,19 +6022,19 @@
         <v>1624.67405208597</v>
       </c>
       <c r="U23" t="n">
-        <v>1624.67405208597</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="V23" t="n">
-        <v>1624.67405208597</v>
+        <v>1008.829727808632</v>
       </c>
       <c r="W23" t="n">
-        <v>1624.67405208597</v>
+        <v>1008.829727808632</v>
       </c>
       <c r="X23" t="n">
-        <v>1212.954053253717</v>
+        <v>1008.829727808632</v>
       </c>
       <c r="Y23" t="n">
-        <v>807.6167832086077</v>
+        <v>1008.829727808632</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>44.35863542273858</v>
       </c>
       <c r="J24" t="n">
-        <v>44.35863542273858</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K24" t="n">
-        <v>393.2225928484407</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L24" t="n">
+        <v>772.8420314050605</v>
+      </c>
+      <c r="M24" t="n">
+        <v>772.8420314050605</v>
+      </c>
+      <c r="N24" t="n">
+        <v>772.8420314050605</v>
+      </c>
+      <c r="O24" t="n">
         <v>850.0084995511716</v>
       </c>
-      <c r="M24" t="n">
+      <c r="P24" t="n">
         <v>1306.794406253902</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1763.580312956633</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1763.580312956633</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1763.580312956633</v>
       </c>
       <c r="Q24" t="n">
         <v>1763.580312956633</v>
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>208.8845555819107</v>
+        <v>106.4393219715645</v>
       </c>
       <c r="C25" t="n">
         <v>36.91199246082674</v>
@@ -6147,10 +6147,10 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J25" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K25" t="n">
-        <v>94.40332068498475</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L25" t="n">
         <v>430.8949765933859</v>
@@ -6177,22 +6177,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T25" t="n">
-        <v>1704.705508877583</v>
+        <v>1602.260275267237</v>
       </c>
       <c r="U25" t="n">
-        <v>1424.521060377887</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V25" t="n">
-        <v>1142.809592985916</v>
+        <v>1040.36435937557</v>
       </c>
       <c r="W25" t="n">
-        <v>867.9571891584293</v>
+        <v>765.5119555480831</v>
       </c>
       <c r="X25" t="n">
-        <v>625.3932926042344</v>
+        <v>522.9480589938881</v>
       </c>
       <c r="Y25" t="n">
-        <v>399.0505242939764</v>
+        <v>296.6052906836302</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.302640172791</v>
+        <v>1750.541668605649</v>
       </c>
       <c r="C26" t="n">
-        <v>212.302640172791</v>
+        <v>1750.541668605649</v>
       </c>
       <c r="D26" t="n">
-        <v>212.302640172791</v>
+        <v>1327.249047790649</v>
       </c>
       <c r="E26" t="n">
-        <v>212.302640172791</v>
+        <v>901.2721079385067</v>
       </c>
       <c r="F26" t="n">
-        <v>36.91199246082673</v>
+        <v>476.1479261279069</v>
       </c>
       <c r="G26" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="H26" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I26" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J26" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K26" t="n">
-        <v>36.91199246082673</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L26" t="n">
-        <v>36.91199246082673</v>
+        <v>950.4838058662885</v>
       </c>
       <c r="M26" t="n">
-        <v>36.91199246082673</v>
+        <v>950.4838058662885</v>
       </c>
       <c r="N26" t="n">
-        <v>493.6978991635576</v>
+        <v>950.4838058662885</v>
       </c>
       <c r="O26" t="n">
-        <v>950.4838058662883</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P26" t="n">
-        <v>1407.269712569019</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q26" t="n">
         <v>1845.599623041337</v>
@@ -6253,25 +6253,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S26" t="n">
-        <v>1845.599623041337</v>
+        <v>1750.541668605649</v>
       </c>
       <c r="T26" t="n">
-        <v>1845.599623041337</v>
+        <v>1750.541668605649</v>
       </c>
       <c r="U26" t="n">
-        <v>1845.599623041337</v>
+        <v>1750.541668605649</v>
       </c>
       <c r="V26" t="n">
-        <v>1845.599623041337</v>
+        <v>1750.541668605649</v>
       </c>
       <c r="W26" t="n">
-        <v>1449.208273341683</v>
+        <v>1750.541668605649</v>
       </c>
       <c r="X26" t="n">
-        <v>1037.488274509431</v>
+        <v>1750.541668605649</v>
       </c>
       <c r="Y26" t="n">
-        <v>632.1510044643211</v>
+        <v>1750.541668605649</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C27" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D27" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E27" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F27" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G27" t="n">
-        <v>90.28808569851712</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H27" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I27" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J27" t="n">
-        <v>316.0561247023297</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="K27" t="n">
-        <v>772.8420314050604</v>
+        <v>393.2225928484409</v>
       </c>
       <c r="L27" t="n">
-        <v>1229.627938107791</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="M27" t="n">
-        <v>1686.413844810522</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="N27" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="O27" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="P27" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="Q27" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R27" t="n">
         <v>1845.599623041337</v>
@@ -6335,7 +6335,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T27" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U27" t="n">
         <v>1437.627243819906</v>
@@ -6344,13 +6344,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W27" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X27" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y27" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="28">
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1020.32454672534</v>
+        <v>359.616078389634</v>
       </c>
       <c r="C28" t="n">
-        <v>848.3519836042556</v>
+        <v>359.616078389634</v>
       </c>
       <c r="D28" t="n">
-        <v>685.0352107310263</v>
+        <v>196.2993055164047</v>
       </c>
       <c r="E28" t="n">
-        <v>518.8270048838798</v>
+        <v>196.2993055164047</v>
       </c>
       <c r="F28" t="n">
-        <v>346.9652306584402</v>
+        <v>196.2993055164047</v>
       </c>
       <c r="G28" t="n">
-        <v>180.7082609526723</v>
+        <v>196.2993055164047</v>
       </c>
       <c r="H28" t="n">
-        <v>36.91199246082673</v>
+        <v>52.50303702455912</v>
       </c>
       <c r="I28" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J28" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K28" t="n">
-        <v>76.20565529896515</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L28" t="n">
-        <v>430.8949765933859</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M28" t="n">
-        <v>822.0807715636367</v>
+        <v>1009.314709931336</v>
       </c>
       <c r="N28" t="n">
-        <v>1199.572282439673</v>
+        <v>1386.806220807371</v>
       </c>
       <c r="O28" t="n">
-        <v>1555.000411119436</v>
+        <v>1742.234349487134</v>
       </c>
       <c r="P28" t="n">
         <v>1845.599623041337</v>
@@ -6408,28 +6408,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R28" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S28" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T28" t="n">
-        <v>1845.599623041337</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U28" t="n">
-        <v>1845.599623041337</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="V28" t="n">
-        <v>1845.599623041337</v>
+        <v>1103.375147081574</v>
       </c>
       <c r="W28" t="n">
-        <v>1679.397180301858</v>
+        <v>828.5227432540869</v>
       </c>
       <c r="X28" t="n">
-        <v>1436.833283747663</v>
+        <v>585.958846699892</v>
       </c>
       <c r="Y28" t="n">
-        <v>1210.490515437405</v>
+        <v>359.616078389634</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1289.667857496978</v>
+        <v>1028.542354163974</v>
       </c>
       <c r="C29" t="n">
-        <v>1289.667857496978</v>
+        <v>1028.542354163974</v>
       </c>
       <c r="D29" t="n">
-        <v>866.3752366819779</v>
+        <v>1028.542354163974</v>
       </c>
       <c r="E29" t="n">
-        <v>866.3752366819779</v>
+        <v>1028.542354163974</v>
       </c>
       <c r="F29" t="n">
-        <v>441.2510548713781</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="G29" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H29" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I29" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J29" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K29" t="n">
-        <v>358.3859952497894</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L29" t="n">
-        <v>358.3859952497894</v>
+        <v>950.4838058662885</v>
       </c>
       <c r="M29" t="n">
-        <v>815.1719019525202</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="N29" t="n">
-        <v>1271.957808655251</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="O29" t="n">
-        <v>1271.957808655251</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="P29" t="n">
-        <v>1271.957808655251</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q29" t="n">
         <v>1728.043288159434</v>
@@ -6499,16 +6499,16 @@
         <v>1845.599623041337</v>
       </c>
       <c r="V29" t="n">
-        <v>1488.110208167586</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W29" t="n">
-        <v>1488.110208167586</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X29" t="n">
-        <v>1488.110208167586</v>
+        <v>1433.879624209084</v>
       </c>
       <c r="Y29" t="n">
-        <v>1488.110208167586</v>
+        <v>1028.542354163974</v>
       </c>
     </row>
     <row r="30">
@@ -6524,46 +6524,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D30" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E30" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F30" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G30" t="n">
-        <v>90.28808569851712</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H30" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I30" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J30" t="n">
         <v>316.0561247023297</v>
       </c>
       <c r="K30" t="n">
-        <v>772.8420314050604</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L30" t="n">
         <v>1229.627938107791</v>
       </c>
       <c r="M30" t="n">
-        <v>1306.794406253903</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="N30" t="n">
-        <v>1306.794406253903</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O30" t="n">
-        <v>1306.794406253903</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P30" t="n">
-        <v>1306.794406253903</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q30" t="n">
-        <v>1763.580312956633</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R30" t="n">
         <v>1845.599623041337</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>401.3226470302517</v>
+        <v>341.1121760507089</v>
       </c>
       <c r="C31" t="n">
-        <v>401.3226470302517</v>
+        <v>169.1396129296249</v>
       </c>
       <c r="D31" t="n">
-        <v>401.3226470302517</v>
+        <v>169.1396129296249</v>
       </c>
       <c r="E31" t="n">
-        <v>235.1144411831052</v>
+        <v>169.1396129296249</v>
       </c>
       <c r="F31" t="n">
-        <v>63.25266695766567</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G31" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H31" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I31" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J31" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K31" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L31" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M31" t="n">
-        <v>822.0807715636367</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N31" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O31" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P31" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q31" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R31" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S31" t="n">
-        <v>1675.464575560472</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T31" t="n">
-        <v>1432.125227786371</v>
+        <v>1555.22166195441</v>
       </c>
       <c r="U31" t="n">
-        <v>1151.940779286676</v>
+        <v>1275.037213454714</v>
       </c>
       <c r="V31" t="n">
-        <v>870.2293118947046</v>
+        <v>1275.037213454714</v>
       </c>
       <c r="W31" t="n">
-        <v>870.2293118947046</v>
+        <v>1000.184809627227</v>
       </c>
       <c r="X31" t="n">
-        <v>627.6654153405096</v>
+        <v>757.6209130730325</v>
       </c>
       <c r="Y31" t="n">
-        <v>401.3226470302517</v>
+        <v>531.2781447627746</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="C32" t="n">
-        <v>1845.599623041337</v>
+        <v>835.0511185688229</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.220555060086</v>
+        <v>835.0511185688229</v>
       </c>
       <c r="E32" t="n">
-        <v>1164.243615207943</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="F32" t="n">
-        <v>739.1194333973433</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="G32" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H32" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I32" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J32" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K32" t="n">
-        <v>856.3013579804531</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="L32" t="n">
-        <v>1313.087264683184</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="M32" t="n">
-        <v>1728.043288159434</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="N32" t="n">
-        <v>1728.043288159434</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O32" t="n">
-        <v>1728.043288159434</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P32" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q32" t="n">
         <v>1728.043288159434</v>
@@ -6727,25 +6727,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S32" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T32" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U32" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="V32" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="W32" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="X32" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="Y32" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
     </row>
     <row r="33">
@@ -6761,43 +6761,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D33" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E33" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F33" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G33" t="n">
-        <v>90.28808569851712</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H33" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I33" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J33" t="n">
-        <v>44.35863542273857</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K33" t="n">
-        <v>44.35863542273857</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L33" t="n">
-        <v>44.35863542273857</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M33" t="n">
-        <v>501.1445421254694</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="N33" t="n">
-        <v>957.9304488282003</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="O33" t="n">
-        <v>1414.716355530931</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="P33" t="n">
-        <v>1763.580312956633</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="Q33" t="n">
         <v>1763.580312956633</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>126.4702432027646</v>
+        <v>334.2531124862248</v>
       </c>
       <c r="C34" t="n">
-        <v>126.4702432027646</v>
+        <v>162.2805493651408</v>
       </c>
       <c r="D34" t="n">
-        <v>126.4702432027646</v>
+        <v>162.2805493651408</v>
       </c>
       <c r="E34" t="n">
-        <v>126.4702432027646</v>
+        <v>162.2805493651408</v>
       </c>
       <c r="F34" t="n">
-        <v>126.4702432027646</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G34" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H34" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I34" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J34" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K34" t="n">
-        <v>76.20565529896515</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="L34" t="n">
-        <v>430.8949765933859</v>
+        <v>391.6013137552475</v>
       </c>
       <c r="M34" t="n">
-        <v>822.0807715636367</v>
+        <v>782.7871087254983</v>
       </c>
       <c r="N34" t="n">
-        <v>1199.572282439673</v>
+        <v>1160.278619601534</v>
       </c>
       <c r="O34" t="n">
-        <v>1555.000411119436</v>
+        <v>1515.706748281297</v>
       </c>
       <c r="P34" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q34" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R34" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S34" t="n">
-        <v>1675.464575560472</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T34" t="n">
-        <v>1432.125227786371</v>
+        <v>1555.22166195441</v>
       </c>
       <c r="U34" t="n">
-        <v>1151.940779286676</v>
+        <v>1275.037213454714</v>
       </c>
       <c r="V34" t="n">
-        <v>870.2293118947046</v>
+        <v>993.3257460627433</v>
       </c>
       <c r="W34" t="n">
-        <v>595.3769080672175</v>
+        <v>993.3257460627433</v>
       </c>
       <c r="X34" t="n">
-        <v>352.8130115130226</v>
+        <v>750.7618495085484</v>
       </c>
       <c r="Y34" t="n">
-        <v>126.4702432027646</v>
+        <v>524.4190811982904</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1738.206464925269</v>
+        <v>1346.202606195097</v>
       </c>
       <c r="C35" t="n">
-        <v>1311.305734938569</v>
+        <v>1346.202606195097</v>
       </c>
       <c r="D35" t="n">
-        <v>888.013114123569</v>
+        <v>922.9099853800977</v>
       </c>
       <c r="E35" t="n">
-        <v>462.0361742714265</v>
+        <v>496.9330455279553</v>
       </c>
       <c r="F35" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="G35" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="H35" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I35" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J35" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K35" t="n">
-        <v>36.91199246082673</v>
+        <v>814.4714747539724</v>
       </c>
       <c r="L35" t="n">
-        <v>493.6978991635576</v>
+        <v>814.4714747539724</v>
       </c>
       <c r="M35" t="n">
-        <v>950.4838058662883</v>
+        <v>814.4714747539724</v>
       </c>
       <c r="N35" t="n">
-        <v>1407.269712569019</v>
+        <v>814.4714747539724</v>
       </c>
       <c r="O35" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="P35" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q35" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R35" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S35" t="n">
-        <v>1845.599623041337</v>
+        <v>1825.483086554052</v>
       </c>
       <c r="T35" t="n">
-        <v>1845.599623041337</v>
+        <v>1604.557515598685</v>
       </c>
       <c r="U35" t="n">
-        <v>1845.599623041337</v>
+        <v>1346.202606195097</v>
       </c>
       <c r="V35" t="n">
-        <v>1845.599623041337</v>
+        <v>1346.202606195097</v>
       </c>
       <c r="W35" t="n">
-        <v>1845.599623041337</v>
+        <v>1346.202606195097</v>
       </c>
       <c r="X35" t="n">
-        <v>1845.599623041337</v>
+        <v>1346.202606195097</v>
       </c>
       <c r="Y35" t="n">
-        <v>1845.599623041337</v>
+        <v>1346.202606195097</v>
       </c>
     </row>
     <row r="36">
@@ -6998,43 +6998,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D36" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E36" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F36" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G36" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H36" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I36" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J36" t="n">
-        <v>44.35863542273857</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K36" t="n">
-        <v>44.35863542273857</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L36" t="n">
-        <v>44.35863542273857</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="M36" t="n">
-        <v>501.1445421254694</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="N36" t="n">
-        <v>957.9304488282003</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="O36" t="n">
-        <v>1414.716355530931</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="P36" t="n">
-        <v>1763.580312956633</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="Q36" t="n">
         <v>1763.580312956633</v>
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>911.6745856373311</v>
+        <v>216.4887229903952</v>
       </c>
       <c r="C37" t="n">
-        <v>739.7020225162471</v>
+        <v>44.51615986931117</v>
       </c>
       <c r="D37" t="n">
-        <v>576.3852496430178</v>
+        <v>44.51615986931117</v>
       </c>
       <c r="E37" t="n">
-        <v>410.1770437958713</v>
+        <v>44.51615986931117</v>
       </c>
       <c r="F37" t="n">
-        <v>238.3152695704318</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G37" t="n">
-        <v>72.05829986466389</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H37" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I37" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J37" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K37" t="n">
-        <v>263.4395936666639</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="L37" t="n">
-        <v>618.1289149610848</v>
+        <v>303.8948463526241</v>
       </c>
       <c r="M37" t="n">
-        <v>1009.314709931336</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.806220807371</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O37" t="n">
-        <v>1742.234349487134</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P37" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q37" t="n">
         <v>1845.599623041337</v>
@@ -7122,25 +7122,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S37" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T37" t="n">
-        <v>1845.599623041337</v>
+        <v>1432.125227786372</v>
       </c>
       <c r="U37" t="n">
-        <v>1845.599623041337</v>
+        <v>1432.125227786372</v>
       </c>
       <c r="V37" t="n">
-        <v>1845.599623041337</v>
+        <v>1150.413760394401</v>
       </c>
       <c r="W37" t="n">
-        <v>1570.74721921385</v>
+        <v>875.5613565669137</v>
       </c>
       <c r="X37" t="n">
-        <v>1328.183322659655</v>
+        <v>632.9974600127188</v>
       </c>
       <c r="Y37" t="n">
-        <v>1101.840554349397</v>
+        <v>406.6546917024608</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1292.35217653412</v>
+        <v>1086.486069811236</v>
       </c>
       <c r="C38" t="n">
-        <v>1292.35217653412</v>
+        <v>659.5853398245365</v>
       </c>
       <c r="D38" t="n">
-        <v>1292.35217653412</v>
+        <v>659.5853398245365</v>
       </c>
       <c r="E38" t="n">
-        <v>866.3752366819779</v>
+        <v>659.5853398245365</v>
       </c>
       <c r="F38" t="n">
-        <v>441.2510548713781</v>
+        <v>234.4611580139367</v>
       </c>
       <c r="G38" t="n">
-        <v>36.91199246082673</v>
+        <v>234.4611580139367</v>
       </c>
       <c r="H38" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I38" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J38" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K38" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L38" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M38" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N38" t="n">
-        <v>493.6978991635576</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="O38" t="n">
-        <v>950.4838058662883</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P38" t="n">
-        <v>1407.269712569019</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q38" t="n">
         <v>1728.043288159434</v>
@@ -7201,25 +7201,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S38" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T38" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U38" t="n">
-        <v>1649.841591407871</v>
+        <v>1482.877419510889</v>
       </c>
       <c r="V38" t="n">
-        <v>1292.35217653412</v>
+        <v>1482.877419510889</v>
       </c>
       <c r="W38" t="n">
-        <v>1292.35217653412</v>
+        <v>1086.486069811236</v>
       </c>
       <c r="X38" t="n">
-        <v>1292.35217653412</v>
+        <v>1086.486069811236</v>
       </c>
       <c r="Y38" t="n">
-        <v>1292.35217653412</v>
+        <v>1086.486069811236</v>
       </c>
     </row>
     <row r="39">
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C39" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D39" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E39" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F39" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G39" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H39" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I39" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J39" t="n">
-        <v>44.35863542273857</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K39" t="n">
-        <v>501.1445421254694</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L39" t="n">
-        <v>932.0278096358751</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M39" t="n">
-        <v>932.0278096358751</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="N39" t="n">
-        <v>932.0278096358751</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="O39" t="n">
-        <v>1388.813716338606</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="P39" t="n">
-        <v>1845.599623041337</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="Q39" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R39" t="n">
         <v>1845.599623041337</v>
@@ -7283,7 +7283,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T39" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U39" t="n">
         <v>1437.627243819906</v>
@@ -7292,13 +7292,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W39" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X39" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y39" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="40">
@@ -7311,64 +7311,64 @@
         <v>208.8845555819107</v>
       </c>
       <c r="C40" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D40" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E40" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F40" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G40" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H40" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I40" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J40" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K40" t="n">
-        <v>263.4395936666639</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L40" t="n">
-        <v>618.1289149610848</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M40" t="n">
-        <v>1009.314709931336</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.806220807371</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O40" t="n">
-        <v>1742.234349487134</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P40" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q40" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R40" t="n">
-        <v>1845.599623041337</v>
+        <v>1843.327500305061</v>
       </c>
       <c r="S40" t="n">
-        <v>1845.599623041337</v>
+        <v>1673.192452824196</v>
       </c>
       <c r="T40" t="n">
-        <v>1704.705508877583</v>
+        <v>1429.853105050096</v>
       </c>
       <c r="U40" t="n">
-        <v>1424.521060377887</v>
+        <v>1149.6686565504</v>
       </c>
       <c r="V40" t="n">
-        <v>1142.809592985916</v>
+        <v>867.9571891584293</v>
       </c>
       <c r="W40" t="n">
         <v>867.9571891584293</v>
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1488.110208167586</v>
+        <v>761.6811009734918</v>
       </c>
       <c r="C41" t="n">
-        <v>1311.305734938569</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="D41" t="n">
-        <v>888.013114123569</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="E41" t="n">
-        <v>462.0361742714265</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="F41" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G41" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H41" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I41" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J41" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K41" t="n">
-        <v>399.5154512777223</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L41" t="n">
-        <v>399.5154512777223</v>
+        <v>950.4838058662885</v>
       </c>
       <c r="M41" t="n">
-        <v>399.5154512777223</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="N41" t="n">
-        <v>399.5154512777223</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="O41" t="n">
-        <v>856.3013579804531</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P41" t="n">
         <v>1271.957808655251</v>
@@ -7438,25 +7438,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S41" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T41" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U41" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="V41" t="n">
-        <v>1488.110208167586</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="W41" t="n">
-        <v>1488.110208167586</v>
+        <v>761.6811009734918</v>
       </c>
       <c r="X41" t="n">
-        <v>1488.110208167586</v>
+        <v>761.6811009734918</v>
       </c>
       <c r="Y41" t="n">
-        <v>1488.110208167586</v>
+        <v>761.6811009734918</v>
       </c>
     </row>
     <row r="42">
@@ -7472,43 +7472,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D42" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E42" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F42" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G42" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H42" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I42" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J42" t="n">
         <v>316.0561247023297</v>
       </c>
       <c r="K42" t="n">
-        <v>772.8420314050604</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L42" t="n">
-        <v>850.0084995511719</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="M42" t="n">
-        <v>850.0084995511719</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="N42" t="n">
-        <v>850.0084995511719</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="O42" t="n">
-        <v>850.0084995511719</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="P42" t="n">
-        <v>1306.794406253903</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="Q42" t="n">
         <v>1763.580312956633</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>668.335237863231</v>
+        <v>106.4393219715645</v>
       </c>
       <c r="C43" t="n">
-        <v>496.362674742147</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D43" t="n">
-        <v>496.362674742147</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E43" t="n">
-        <v>375.0307363920342</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F43" t="n">
-        <v>203.1689621665946</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G43" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H43" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I43" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J43" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K43" t="n">
         <v>76.20565529896515</v>
@@ -7599,22 +7599,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T43" t="n">
-        <v>1602.260275267236</v>
+        <v>1602.260275267237</v>
       </c>
       <c r="U43" t="n">
-        <v>1602.260275267236</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V43" t="n">
-        <v>1602.260275267236</v>
+        <v>1040.36435937557</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.407871439749</v>
+        <v>765.5119555480831</v>
       </c>
       <c r="X43" t="n">
-        <v>1084.843974885555</v>
+        <v>522.9480589938881</v>
       </c>
       <c r="Y43" t="n">
-        <v>858.5012065752967</v>
+        <v>296.6052906836302</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1741.232328914477</v>
+        <v>889.7896622996691</v>
       </c>
       <c r="C44" t="n">
-        <v>1314.331598927777</v>
+        <v>462.8889323129692</v>
       </c>
       <c r="D44" t="n">
-        <v>891.0389781127774</v>
+        <v>462.8889323129692</v>
       </c>
       <c r="E44" t="n">
-        <v>465.0620382606349</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F44" t="n">
-        <v>39.93785645003516</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G44" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H44" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I44" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J44" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K44" t="n">
-        <v>399.5154512777223</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L44" t="n">
-        <v>399.5154512777223</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M44" t="n">
-        <v>399.5154512777223</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N44" t="n">
-        <v>856.3013579804531</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="O44" t="n">
-        <v>1313.087264683184</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="P44" t="n">
-        <v>1769.873171385915</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q44" t="n">
         <v>1845.599623041337</v>
@@ -7678,22 +7678,22 @@
         <v>1741.232328914477</v>
       </c>
       <c r="T44" t="n">
-        <v>1741.232328914477</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U44" t="n">
-        <v>1741.232328914477</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="V44" t="n">
-        <v>1741.232328914477</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="W44" t="n">
-        <v>1741.232328914477</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="X44" t="n">
-        <v>1741.232328914477</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="Y44" t="n">
-        <v>1741.232328914477</v>
+        <v>1114.969487914001</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C45" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D45" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E45" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F45" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G45" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H45" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I45" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J45" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K45" t="n">
-        <v>765.3953884431487</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L45" t="n">
-        <v>932.0278096358751</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M45" t="n">
-        <v>932.0278096358751</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="N45" t="n">
-        <v>1388.813716338606</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O45" t="n">
-        <v>1388.813716338606</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P45" t="n">
-        <v>1388.813716338606</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q45" t="n">
         <v>1845.599623041337</v>
@@ -7757,7 +7757,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T45" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U45" t="n">
         <v>1437.627243819906</v>
@@ -7766,13 +7766,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W45" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X45" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y45" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="46">
@@ -7782,46 +7782,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>372.0905395594956</v>
+        <v>446.6850350595429</v>
       </c>
       <c r="C46" t="n">
-        <v>372.0905395594956</v>
+        <v>446.6850350595429</v>
       </c>
       <c r="D46" t="n">
-        <v>208.7737666862663</v>
+        <v>446.6850350595429</v>
       </c>
       <c r="E46" t="n">
-        <v>208.7737666862663</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="F46" t="n">
-        <v>36.91199246082673</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="G46" t="n">
-        <v>36.91199246082673</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H46" t="n">
-        <v>36.91199246082673</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I46" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J46" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K46" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="L46" t="n">
-        <v>303.8948463526237</v>
+        <v>391.6013137552475</v>
       </c>
       <c r="M46" t="n">
-        <v>695.0806413228745</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N46" t="n">
-        <v>1072.57215219891</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O46" t="n">
-        <v>1428.000280878673</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P46" t="n">
         <v>1718.599492800575</v>
@@ -7833,25 +7833,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S46" t="n">
-        <v>1694.742103606945</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T46" t="n">
-        <v>1451.402755832844</v>
+        <v>1432.125227786372</v>
       </c>
       <c r="U46" t="n">
-        <v>1171.218307333149</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="V46" t="n">
-        <v>889.5068399411775</v>
+        <v>870.229311894705</v>
       </c>
       <c r="W46" t="n">
-        <v>614.6544361136905</v>
+        <v>673.0278033698008</v>
       </c>
       <c r="X46" t="n">
-        <v>372.0905395594956</v>
+        <v>673.0278033698008</v>
       </c>
       <c r="Y46" t="n">
-        <v>372.0905395594956</v>
+        <v>446.6850350595429</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>362.3257551502136</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M2" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>498.7908651163582</v>
+        <v>457.2459600376384</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8063,25 +8063,25 @@
         <v>483.7991395936675</v>
       </c>
       <c r="L3" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>484.4966862726621</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>182.1367435982031</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>101.1178171425366</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>233.3185262234003</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8151,13 +8151,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>22.49918749842445</v>
+        <v>134.3202603144915</v>
       </c>
       <c r="P4" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
         <v>497.1645065551435</v>
@@ -8224,19 +8224,19 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>361.2933355520367</v>
       </c>
       <c r="O5" t="n">
-        <v>457.2459600376382</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8294,31 +8294,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L6" t="n">
-        <v>483.9149924745637</v>
+        <v>100.4610141345441</v>
       </c>
       <c r="M6" t="n">
-        <v>484.4966862726621</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N6" t="n">
-        <v>482.7429339738758</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>458.4075134701064</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>417.7126065281028</v>
+        <v>401.2507195050165</v>
       </c>
       <c r="N7" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>381.5174992961649</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P7" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
         <v>497.1645065551435</v>
@@ -8461,22 +8461,22 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>362.1121742943703</v>
       </c>
       <c r="P8" t="n">
-        <v>114.7742293394935</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,25 +8531,25 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>374.7870696168712</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>100.4610141345439</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738758</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651628</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q9" t="n">
         <v>484.1469440493127</v>
@@ -8610,16 +8610,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
-        <v>417.7126065281028</v>
+        <v>42.2324077072759</v>
       </c>
       <c r="N10" t="n">
         <v>402.0534574160406</v>
@@ -8631,7 +8631,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8695,22 +8695,22 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>457.4595408934816</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>457.1346235160602</v>
       </c>
       <c r="O11" t="n">
-        <v>498.7908651163582</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8765,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L12" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>484.4966862726621</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>484.5717954825564</v>
+        <v>101.1178171425364</v>
       </c>
       <c r="P12" t="n">
-        <v>464.5283265304018</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,10 +8847,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
         <v>380.1908016072373</v>
@@ -8859,7 +8859,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N13" t="n">
-        <v>402.0534574160406</v>
+        <v>26.57325859521377</v>
       </c>
       <c r="O13" t="n">
         <v>381.5174992961649</v>
@@ -8868,7 +8868,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8929,10 +8929,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M14" t="n">
         <v>37.43126289943181</v>
@@ -8941,16 +8941,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>457.2459600376382</v>
+        <v>114.5898268852865</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,28 +9002,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>100.4610141345437</v>
       </c>
       <c r="M15" t="n">
-        <v>484.4966862726621</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>482.7429339738758</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>108.6396787202253</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P15" t="n">
-        <v>483.1707469651628</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9084,16 +9084,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>417.7126065281028</v>
+        <v>42.2324077072759</v>
       </c>
       <c r="N16" t="n">
         <v>402.0534574160406</v>
@@ -9105,7 +9105,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>454.9120992556681</v>
       </c>
       <c r="L17" t="n">
-        <v>481.0695277581962</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M17" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>498.7908651163582</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q17" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>190.7148107956833</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L18" t="n">
         <v>483.9149924745637</v>
       </c>
       <c r="M18" t="n">
-        <v>484.4966862726621</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N18" t="n">
-        <v>482.7429339738758</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9263,10 +9263,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>100.6929657092928</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K19" t="n">
         <v>249.7804132464869</v>
@@ -9339,7 +9339,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
-        <v>68.71811917318252</v>
+        <v>126.7901678844537</v>
       </c>
       <c r="Q19" t="n">
         <v>24.61956276478495</v>
@@ -9409,22 +9409,22 @@
         <v>499.7119481929572</v>
       </c>
       <c r="M20" t="n">
-        <v>456.5787613602907</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>498.6795285947802</v>
+        <v>114.4784903637085</v>
       </c>
       <c r="O20" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,22 +9485,22 @@
         <v>483.7991395936675</v>
       </c>
       <c r="L21" t="n">
-        <v>100.4610141345441</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>484.5717954825564</v>
+        <v>101.1178171425364</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9558,16 +9558,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>60.65522297608413</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L22" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>417.7126065281028</v>
+        <v>271.0481665010509</v>
       </c>
       <c r="N22" t="n">
         <v>402.0534574160406</v>
@@ -9579,7 +9579,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L23" t="n">
-        <v>499.7119481929572</v>
+        <v>457.4595408934818</v>
       </c>
       <c r="M23" t="n">
-        <v>480.1887482250049</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>498.7908651163583</v>
@@ -9661,7 +9661,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>374.7870696168708</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L24" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>101.1178171425364</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R24" t="n">
         <v>106.5207073584907</v>
@@ -9795,13 +9795,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K25" t="n">
-        <v>20.964654452712</v>
+        <v>60.65522297608413</v>
       </c>
       <c r="L25" t="n">
-        <v>361.8093214193388</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
         <v>417.7126065281028</v>
@@ -9877,25 +9877,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L26" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M26" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>498.7908651163582</v>
+        <v>480.1484446815972</v>
       </c>
       <c r="P26" t="n">
-        <v>498.9752675705654</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q26" t="n">
-        <v>478.8821599301712</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
         <v>35.03264989479647</v>
@@ -9953,19 +9953,19 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>483.7991395936675</v>
+        <v>374.7870696168711</v>
       </c>
       <c r="L27" t="n">
         <v>483.9149924745637</v>
       </c>
       <c r="M27" t="n">
-        <v>484.4966862726621</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N27" t="n">
-        <v>182.1367435982031</v>
+        <v>482.7429339738759</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -9977,7 +9977,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10035,7 +10035,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K28" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
         <v>380.1908016072373</v>
@@ -10050,7 +10050,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>126.7901678844537</v>
       </c>
       <c r="Q28" t="n">
         <v>24.61956276478495</v>
@@ -10114,25 +10114,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>360.4858157331554</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L29" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M29" t="n">
         <v>498.831168659766</v>
       </c>
       <c r="N29" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
-        <v>37.3909593560241</v>
+        <v>361.4046720736148</v>
       </c>
       <c r="P29" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10199,10 +10199,10 @@
         <v>483.9149924745637</v>
       </c>
       <c r="M30" t="n">
-        <v>101.0427079326427</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>182.1367435982026</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10214,7 +10214,7 @@
         <v>484.1469440493127</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,16 +10269,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L31" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>417.7126065281028</v>
+        <v>42.2324077072759</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
@@ -10290,7 +10290,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10351,13 +10351,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>497.1645065551435</v>
+        <v>455.6196014764236</v>
       </c>
       <c r="L32" t="n">
-        <v>499.7119481929571</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
-        <v>456.5787613602905</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
         <v>37.27962283444602</v>
@@ -10366,10 +10366,10 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10427,28 +10427,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M33" t="n">
-        <v>484.4966862726621</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>482.7429339738758</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>374.1586769883663</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>100.6929657092928</v>
       </c>
       <c r="R33" t="n">
         <v>106.5207073584907</v>
@@ -10509,7 +10509,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K34" t="n">
-        <v>60.65522297608414</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L34" t="n">
         <v>380.1908016072373</v>
@@ -10524,10 +10524,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
-        <v>315.9153581548562</v>
+        <v>227.322966839075</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>454.9120992556681</v>
       </c>
       <c r="L35" t="n">
-        <v>499.7119481929571</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M35" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>480.1484446815972</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,28 +10664,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>484.4966862726621</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>482.7429339738758</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>484.5717954825564</v>
+        <v>101.1178171425364</v>
       </c>
       <c r="P36" t="n">
-        <v>374.1586769883663</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R36" t="n">
         <v>106.5207073584907</v>
@@ -10746,10 +10746,10 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L37" t="n">
-        <v>380.1908016072373</v>
+        <v>291.5984102914562</v>
       </c>
       <c r="M37" t="n">
         <v>417.7126065281028</v>
@@ -10761,10 +10761,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>126.7901678844535</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>35.76460079480934</v>
@@ -10834,16 +10834,16 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>498.7908651163582</v>
+        <v>457.2459600376383</v>
       </c>
       <c r="P38" t="n">
-        <v>498.9752675705654</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.1383873221887</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10901,13 +10901,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
         <v>483.7991395936675</v>
       </c>
       <c r="L39" t="n">
-        <v>457.7507104621141</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
@@ -10916,16 +10916,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>483.1707469651628</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>100.692965709293</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
         <v>249.7804132464869</v>
@@ -10989,7 +10989,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>417.7126065281028</v>
+        <v>42.2324077072759</v>
       </c>
       <c r="N40" t="n">
         <v>402.0534574160406</v>
@@ -10998,10 +10998,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
-        <v>126.7901678844535</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>362.152477837778</v>
       </c>
       <c r="N41" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>498.7908651163582</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>457.4303624918454</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
@@ -11144,19 +11144,19 @@
         <v>483.7991395936675</v>
       </c>
       <c r="L42" t="n">
-        <v>100.4610141345442</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>99.28895563385584</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>483.1707469651628</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q42" t="n">
         <v>484.1469440493127</v>
@@ -11220,7 +11220,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K43" t="n">
-        <v>60.65522297608414</v>
+        <v>60.65522297608413</v>
       </c>
       <c r="L43" t="n">
         <v>380.1908016072373</v>
@@ -11299,7 +11299,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L44" t="n">
         <v>38.31204243262292</v>
@@ -11311,13 +11311,13 @@
         <v>498.6795285947802</v>
       </c>
       <c r="O44" t="n">
-        <v>498.7908651163582</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P44" t="n">
-        <v>498.9752675705654</v>
+        <v>114.0667271187383</v>
       </c>
       <c r="Q44" t="n">
-        <v>112.616039913105</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
         <v>35.03264989479647</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
@@ -11381,13 +11381,13 @@
         <v>483.7991395936675</v>
       </c>
       <c r="L45" t="n">
-        <v>190.8306636765795</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N45" t="n">
-        <v>482.7429339738758</v>
+        <v>182.1367435982028</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
@@ -11396,7 +11396,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -11460,10 +11460,10 @@
         <v>20.964654452712</v>
       </c>
       <c r="L46" t="n">
-        <v>291.5984102914557</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>417.7126065281028</v>
+        <v>329.1202152123216</v>
       </c>
       <c r="N46" t="n">
         <v>402.0534574160406</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>171.7029640830639</v>
+        <v>301.3771979379503</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
@@ -22603,13 +22603,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22725,7 +22725,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,25 +22755,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>189.8837854365401</v>
       </c>
       <c r="W4" t="n">
-        <v>252.9025712339535</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
@@ -22804,7 +22804,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22837,22 +22837,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>296.0605129651436</v>
       </c>
       <c r="Y5" t="n">
-        <v>273.6634769408821</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -22941,10 +22941,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>146.1698679701245</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>45.77513765314424</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23010,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>21.02026268288847</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
@@ -23038,7 +23038,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>75.28386049514486</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -23178,25 +23178,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>96.42456775476046</v>
       </c>
       <c r="H10" t="n">
-        <v>107.5634614771284</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -23226,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>309.3306541137075</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -23323,10 +23323,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>215.6625267444743</v>
       </c>
     </row>
     <row r="12">
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>63.97603824732799</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -23475,10 +23475,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>98.98621737146397</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23503,7 +23503,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>401.7228378329965</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>71.79950917261004</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23664,7 +23664,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>164.3538534371486</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>86.24654332324531</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23740,7 +23740,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>199.040754789698</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>255.7713603095518</v>
@@ -23794,13 +23794,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>248.9949814519883</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>117.2118772015285</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>45.40428317523097</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -24028,16 +24028,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>227.1620210811431</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>298.630324518662</v>
       </c>
     </row>
     <row r="21">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>132.7997148492288</v>
       </c>
       <c r="V22" t="n">
-        <v>114.3539344059674</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
@@ -24217,16 +24217,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>188.4076510692817</v>
       </c>
       <c r="G23" t="n">
-        <v>52.94780959475753</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,19 +24262,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>101.4207812742427</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -24417,7 +24417,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>101.4207812742428</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>247.2361987576491</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>103.323621185591</v>
+        <v>9.21624629425979</v>
       </c>
       <c r="T26" t="n">
         <v>218.7163152458132</v>
@@ -24505,13 +24505,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>83.33574845903172</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>107.5634614771283</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>219.1919534847124</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>134.3442484335291</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>34.5479025439635</v>
@@ -24739,16 +24739,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>39.23781221907498</v>
       </c>
       <c r="G31" t="n">
-        <v>138.5171322568396</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24919,22 +24919,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>166.2344173054113</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>31.85510739315077</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
         <v>34.5479025439635</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -25086,10 +25086,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>46.02828514791427</v>
       </c>
       <c r="G34" t="n">
-        <v>75.93173177419166</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>309.3306541137075</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>83.40825006317887</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.6150307487856</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>107.5634614771284</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25362,16 +25362,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25393,22 +25393,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407055</v>
+        <v>99.31602084312667</v>
       </c>
       <c r="I38" t="n">
         <v>34.5479025439635</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>61.97090899242065</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>44.31882567078573</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>101.420781274243</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25630,22 +25630,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>247.5952941901058</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>251.073916821459</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>101.4207812742427</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>44.4275048220633</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>192.7218532904265</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3000664371295</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
@@ -25933,7 +25933,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26028,22 +26028,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>19.08475276600834</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>76.87438634955697</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>451578.9132674827</v>
+        <v>451578.9132674825</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>451578.9132674827</v>
+        <v>451578.9132674825</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>451578.9132674825</v>
+        <v>451578.9132674827</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>451578.9132674825</v>
+        <v>451578.9132674827</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>451578.9132674825</v>
+        <v>451578.9132674827</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>451578.9132674827</v>
+        <v>451578.9132674825</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>451578.9132674827</v>
+        <v>451578.9132674825</v>
       </c>
     </row>
   </sheetData>
@@ -26319,16 +26319,16 @@
         <v>105244.5587950953</v>
       </c>
       <c r="D2" t="n">
-        <v>105244.5587950953</v>
+        <v>105244.5587950954</v>
       </c>
       <c r="E2" t="n">
         <v>105244.5587950953</v>
       </c>
       <c r="F2" t="n">
-        <v>105244.5587950953</v>
+        <v>105244.5587950954</v>
       </c>
       <c r="G2" t="n">
-        <v>105244.5587950953</v>
+        <v>105244.5587950954</v>
       </c>
       <c r="H2" t="n">
         <v>105244.5587950953</v>
@@ -26355,7 +26355,7 @@
         <v>105244.5587950954</v>
       </c>
       <c r="P2" t="n">
-        <v>105244.5587950953</v>
+        <v>105244.5587950954</v>
       </c>
     </row>
     <row r="3">
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31000.78171447197</v>
+        <v>31000.78171447198</v>
       </c>
       <c r="C4" t="n">
-        <v>31000.78171447197</v>
+        <v>31000.78171447198</v>
       </c>
       <c r="D4" t="n">
         <v>31000.78171447197</v>
@@ -26429,7 +26429,7 @@
         <v>31000.78171447197</v>
       </c>
       <c r="F4" t="n">
-        <v>31000.78171447198</v>
+        <v>31000.78171447197</v>
       </c>
       <c r="G4" t="n">
         <v>31000.78171447197</v>
@@ -26478,13 +26478,13 @@
         <v>61680.71427022832</v>
       </c>
       <c r="E5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="F5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="G5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="H5" t="n">
         <v>28053.11427022832</v>
@@ -26493,25 +26493,25 @@
         <v>28053.11427022832</v>
       </c>
       <c r="J5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="K5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="L5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="M5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="N5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="O5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="P5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-142062.6578077253</v>
+        <v>-142767.0176292169</v>
       </c>
       <c r="C6" t="n">
-        <v>12563.06281039503</v>
+        <v>11858.70298890355</v>
       </c>
       <c r="D6" t="n">
-        <v>12563.06281039506</v>
+        <v>11858.70298890356</v>
       </c>
       <c r="E6" t="n">
-        <v>46190.66281039506</v>
+        <v>45486.30298890353</v>
       </c>
       <c r="F6" t="n">
-        <v>46190.66281039506</v>
+        <v>45486.30298890358</v>
       </c>
       <c r="G6" t="n">
-        <v>46190.66281039505</v>
+        <v>45486.30298890359</v>
       </c>
       <c r="H6" t="n">
-        <v>46190.66281039506</v>
+        <v>45486.30298890355</v>
       </c>
       <c r="I6" t="n">
-        <v>46190.66281039504</v>
+        <v>45486.30298890353</v>
       </c>
       <c r="J6" t="n">
-        <v>-74531.85413236177</v>
+        <v>-75236.21395385328</v>
       </c>
       <c r="K6" t="n">
-        <v>46190.66281039506</v>
+        <v>45486.30298890355</v>
       </c>
       <c r="L6" t="n">
-        <v>46190.66281039508</v>
+        <v>45486.30298890359</v>
       </c>
       <c r="M6" t="n">
-        <v>46190.66281039509</v>
+        <v>45486.30298890359</v>
       </c>
       <c r="N6" t="n">
-        <v>46190.66281039509</v>
+        <v>45486.30298890356</v>
       </c>
       <c r="O6" t="n">
-        <v>46190.66281039508</v>
+        <v>45486.30298890359</v>
       </c>
       <c r="P6" t="n">
-        <v>46190.66281039505</v>
+        <v>45486.30298890359</v>
       </c>
     </row>
   </sheetData>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="E4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="F4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="G4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="H4" t="n">
         <v>461.3999057603342</v>
@@ -26813,25 +26813,25 @@
         <v>461.3999057603342</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="K4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>324.0137127175906</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M2" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>461.3999057603341</v>
+        <v>419.8550006816143</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34780,28 +34780,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L3" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>160.7937153846614</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>77.94592742031439</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>212.3538717706883</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34871,13 +34871,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>111.8210728160671</v>
       </c>
       <c r="P4" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>324.0137127175907</v>
       </c>
       <c r="O5" t="n">
-        <v>419.8550006816141</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35014,31 +35014,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L6" t="n">
-        <v>461.3999057603341</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="M6" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N6" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>435.2356237478842</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>395.137166636617</v>
+        <v>378.6752796135307</v>
       </c>
       <c r="N7" t="n">
         <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>359.0183117977405</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>324.7212149383462</v>
       </c>
       <c r="P8" t="n">
-        <v>77.1988675292622</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>352.3878357835379</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>77.94592742031439</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35330,16 +35330,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
-        <v>395.137166636617</v>
+        <v>19.65696781579008</v>
       </c>
       <c r="N10" t="n">
         <v>381.3045564404402</v>
@@ -35351,7 +35351,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35415,22 +35415,22 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>419.1474984608586</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="O11" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L12" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>461.3999057603341</v>
+        <v>77.94592742031416</v>
       </c>
       <c r="P12" t="n">
-        <v>442.7574853255731</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K13" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L13" t="n">
         <v>358.2720417115361</v>
@@ -35579,7 +35579,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N13" t="n">
-        <v>381.3045564404402</v>
+        <v>5.82435761961338</v>
       </c>
       <c r="O13" t="n">
         <v>359.0183117977405</v>
@@ -35588,7 +35588,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,10 +35649,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35661,16 +35661,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>419.8550006816141</v>
+        <v>77.19886752926243</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>77.94592742031416</v>
       </c>
       <c r="M15" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>85.46778899800312</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P15" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K16" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
-        <v>395.137166636617</v>
+        <v>19.65696781579008</v>
       </c>
       <c r="N16" t="n">
         <v>381.3045564404402</v>
@@ -35825,7 +35825,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>419.1474984608587</v>
       </c>
       <c r="L17" t="n">
-        <v>442.7574853255733</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M17" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>168.31557696235</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L18" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M18" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N18" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>77.94592742031428</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>228.8157587937749</v>
@@ -36059,7 +36059,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
-        <v>46.33731851519604</v>
+        <v>104.4093672264672</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36129,22 +36129,22 @@
         <v>461.3999057603342</v>
       </c>
       <c r="M20" t="n">
-        <v>419.1474984608589</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
+        <v>77.19886752926243</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,22 +36205,22 @@
         <v>461.3999057603342</v>
       </c>
       <c r="L21" t="n">
-        <v>77.9459274203145</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>77.94592742031416</v>
+      </c>
+      <c r="P21" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="O21" t="n">
+      <c r="Q21" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>82.84778796434657</v>
@@ -36278,16 +36278,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K22" t="n">
-        <v>39.69056852337214</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M22" t="n">
-        <v>395.137166636617</v>
+        <v>248.4727266095651</v>
       </c>
       <c r="N22" t="n">
         <v>381.3045564404402</v>
@@ -36299,7 +36299,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L23" t="n">
-        <v>461.3999057603342</v>
+        <v>419.1474984608589</v>
       </c>
       <c r="M23" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>461.3999057603342</v>
@@ -36381,7 +36381,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>352.3878357835375</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>77.94592742031416</v>
+      </c>
+      <c r="P24" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="M24" t="n">
+      <c r="Q24" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="N24" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>82.84778796434657</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L25" t="n">
-        <v>339.8905615236376</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M25" t="n">
         <v>395.137166636617</v>
@@ -36597,25 +36597,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>461.3999057603341</v>
+        <v>442.7574853255731</v>
       </c>
       <c r="P26" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q26" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,19 +36673,19 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>461.3999057603341</v>
+        <v>352.3878357835378</v>
       </c>
       <c r="L27" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M27" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N27" t="n">
-        <v>160.7937153846614</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L28" t="n">
         <v>358.2720417115361</v>
@@ -36770,7 +36770,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P28" t="n">
-        <v>293.5345574968697</v>
+        <v>104.4093672264672</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36834,25 +36834,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.7212149383461</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M29" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N29" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>324.0137127175907</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36913,16 +36913,16 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L30" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M30" t="n">
-        <v>77.94592742031473</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>160.7937153846609</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R30" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,16 +36989,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K31" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L31" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M31" t="n">
-        <v>395.137166636617</v>
+        <v>19.65696781579008</v>
       </c>
       <c r="N31" t="n">
         <v>381.3045564404402</v>
@@ -37010,7 +37010,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>461.3999057603341</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="L32" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>419.1474984608586</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -37086,10 +37086,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37147,28 +37147,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M33" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>352.3878357835376</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>77.94592742031428</v>
       </c>
       <c r="R33" t="n">
         <v>82.84778796434657</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>39.69056852337214</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>358.2720417115361</v>
@@ -37244,10 +37244,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P34" t="n">
-        <v>293.5345574968697</v>
+        <v>204.9421661810885</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>419.1474984608587</v>
       </c>
       <c r="L35" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>442.7574853255731</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>461.3999057603341</v>
+        <v>77.94592742031416</v>
       </c>
       <c r="P36" t="n">
-        <v>352.3878357835376</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R36" t="n">
         <v>82.84778796434657</v>
@@ -37466,10 +37466,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>228.8157587937749</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>358.2720417115361</v>
+        <v>269.6796503957549</v>
       </c>
       <c r="M37" t="n">
         <v>395.137166636617</v>
@@ -37481,10 +37481,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P37" t="n">
-        <v>104.409367226467</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -37554,16 +37554,16 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>461.3999057603341</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="P38" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q38" t="n">
-        <v>324.0137127175907</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>118.7437726079824</v>
@@ -37621,13 +37621,13 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L39" t="n">
-        <v>435.2356237478845</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37636,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K40" t="n">
         <v>228.8157587937749</v>
@@ -37709,7 +37709,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M40" t="n">
-        <v>395.137166636617</v>
+        <v>19.65696781579008</v>
       </c>
       <c r="N40" t="n">
         <v>381.3045564404402</v>
@@ -37718,10 +37718,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P40" t="n">
-        <v>104.409367226467</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>324.7212149383462</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>419.8550006816141</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
@@ -37861,25 +37861,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L42" t="n">
-        <v>77.94592742031462</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>77.94592742031416</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q42" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R42" t="n">
         <v>82.84778796434657</v>
@@ -38019,7 +38019,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -38028,16 +38028,16 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O44" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P44" t="n">
-        <v>461.3999057603341</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="Q44" t="n">
-        <v>76.49136530850697</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38092,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L45" t="n">
-        <v>168.3155769623499</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N45" t="n">
-        <v>461.3999057603341</v>
+        <v>160.7937153846612</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38180,10 +38180,10 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>269.6796503957545</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M46" t="n">
-        <v>395.137166636617</v>
+        <v>306.5447753208358</v>
       </c>
       <c r="N46" t="n">
         <v>381.3045564404402</v>
